--- a/biology/Botanique/Dendrocerotaceae/Dendrocerotaceae.xlsx
+++ b/biology/Botanique/Dendrocerotaceae/Dendrocerotaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendrocerotaceae sont une famille de anthocérotes de l’ordre des Anthocerotales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Dendrocerotaceae a été créée en 1988[2] par le botaniste japonais Jiro Hasegawa (d) (1947-)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dendrocerotaceae a été créée en 1988 par le botaniste japonais Jiro Hasegawa (d) (1947-).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 janvier 2022) :
 sous-famille Dendrocerotoideae R.M. Schust.
 genre Dendroceros Nees
 genre Megaceros Campb.
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) J. Hasegawa, « A proposal for a new system of the Anthocerotae, with a revision of the genera », Journal of the Hattori Botanical Laboratory, Japon, vol. 64,‎ juin 1988, p. 87–95 (ISSN 0073-0912, lire en ligne, consulté le 7 janvier 2022).</t>
         </is>
